--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_ProjectTypeProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_ProjectTypeProfile_AddNewProfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB2E11C-CD50-4741-9E67-7A364C54F1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8F2ED0-0D30-4ABB-A93D-4559F7605103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="610" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -112,9 +112,6 @@
     <t>BackToList</t>
   </si>
   <si>
-    <t xml:space="preserve"> J02 - J02 </t>
-  </si>
-  <si>
     <t>RandomTxt1</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>AddNewProfile_ProjectTypeProfile</t>
+  </si>
+  <si>
+    <t>J02</t>
   </si>
 </sst>
 </file>
@@ -553,7 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -589,13 +589,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -603,10 +603,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -618,10 +618,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -632,7 +632,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -643,10 +643,10 @@
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -657,7 +657,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -668,7 +668,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -679,7 +679,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
@@ -690,10 +690,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -701,7 +701,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37783694-A041-407B-AB51-2EE2885386A5}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -747,7 +747,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -779,13 +779,13 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>22</v>
